--- a/output/licenses_2020_processed_AI.xlsx
+++ b/output/licenses_2020_processed_AI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaatn\Documents\Arbeit\fair_assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6CA8081C-306F-4829-831F-E05C9AD70655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30AB945-F007-4D0A-BA31-1ECB7515C14A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{6CA8081C-306F-4829-831F-E05C9AD70655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F539EC82-98F8-4027-A7E9-947E657A3267}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="633">
   <si>
     <t>article</t>
   </si>
@@ -1780,7 +1780,7 @@
     <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
   </si>
   <si>
-    <t>proteomexchange</t>
+    <t>Die folgenden 4 Datensaetze wurden von 'proteomexchange' auf 'pride' geaendert!</t>
   </si>
   <si>
     <t>10.4049/immunohorizons.2000006</t>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6879,7 +6879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>555</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>557</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>59</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>560</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>562</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>564</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>398</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>126</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>568</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>570</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>449</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>573</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>575</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>577</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>580</v>
       </c>
@@ -7128,16 +7128,19 @@
         <v>581</v>
       </c>
       <c r="C271" t="s">
+        <v>549</v>
+      </c>
+      <c r="D271" t="s">
+        <v>197</v>
+      </c>
+      <c r="E271" t="s">
+        <v>18</v>
+      </c>
+      <c r="G271" t="s">
         <v>582</v>
       </c>
-      <c r="D271" t="s">
-        <v>197</v>
-      </c>
-      <c r="E271" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>221</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>550</v>
       </c>
       <c r="C272" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="D272" t="s">
         <v>197</v>
@@ -7162,7 +7165,7 @@
         <v>584</v>
       </c>
       <c r="C273" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="D273" t="s">
         <v>197</v>
@@ -7179,7 +7182,7 @@
         <v>585</v>
       </c>
       <c r="C274" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="D274" t="s">
         <v>197</v>

--- a/output/licenses_2020_processed_AI.xlsx
+++ b/output/licenses_2020_processed_AI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_E88293383C096B40D363319A961B185C02DA4E0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747CB972-5313-43F1-83B3-82742B313BE4}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_E88293383C096B40D363319A961B185C02DA4E0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54E18CB-1292-41C7-AFA4-91CE636C65C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="694">
   <si>
     <t>article</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>CC_AND_CC0</t>
+  </si>
+  <si>
+    <t>True nur für FUJI, obwohl es in json-ld steht</t>
   </si>
   <si>
     <t>10.1016/j.cell.2020.08.001</t>
@@ -2137,18 +2140,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2164,14 +2161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2471,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="K242" sqref="K242"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4027,7 +4023,7 @@
       <c r="B48" t="s">
         <v>146</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D48" t="s">
@@ -4045,22 +4041,22 @@
       <c r="H48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="J48" t="e">
-        <v>#N/A</v>
+      <c r="J48" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
         <v>148</v>
@@ -4072,10 +4068,10 @@
         <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
@@ -4086,13 +4082,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
         <v>148</v>
@@ -4118,13 +4114,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>148</v>
@@ -4150,13 +4146,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
         <v>148</v>
@@ -4182,13 +4178,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
         <v>148</v>
@@ -4214,13 +4210,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -4246,22 +4242,22 @@
     </row>
     <row r="55" spans="1:12" ht="180">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -4273,33 +4269,33 @@
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -4311,27 +4307,27 @@
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -4343,27 +4339,27 @@
         <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -4375,27 +4371,27 @@
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -4415,19 +4411,19 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -4444,22 +4440,22 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -4476,22 +4472,22 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
         <v>142</v>
@@ -4508,22 +4504,22 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -4540,22 +4536,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -4572,22 +4568,22 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -4604,22 +4600,22 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -4636,22 +4632,22 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -4668,22 +4664,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -4700,22 +4696,22 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -4732,22 +4728,22 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
@@ -4764,22 +4760,22 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -4796,22 +4792,22 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
@@ -4828,22 +4824,22 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G73" t="s">
         <v>29</v>
@@ -4860,22 +4856,22 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -4892,22 +4888,22 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -4924,22 +4920,22 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
@@ -4951,33 +4947,33 @@
         <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -4989,30 +4985,30 @@
         <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C78" t="e">
         <v>#N/A</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G78" t="s">
         <v>29</v>
@@ -5029,22 +5025,22 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -5056,27 +5052,27 @@
         <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -5093,22 +5089,22 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -5125,22 +5121,22 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -5157,22 +5153,22 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -5192,16 +5188,16 @@
         <v>135</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
         <v>121</v>
@@ -5213,30 +5209,30 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -5248,27 +5244,27 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -5285,22 +5281,22 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -5317,22 +5313,22 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G88" t="s">
         <v>29</v>
@@ -5349,22 +5345,22 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G89" t="s">
         <v>29</v>
@@ -5381,22 +5377,22 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -5413,22 +5409,22 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -5445,22 +5441,22 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -5477,22 +5473,22 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -5504,27 +5500,27 @@
         <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -5541,22 +5537,22 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -5573,22 +5569,22 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" t="s">
         <v>270</v>
       </c>
-      <c r="B96" t="s">
-        <v>269</v>
-      </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -5600,27 +5596,27 @@
         <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -5637,22 +5633,22 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -5669,22 +5665,22 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -5701,22 +5697,22 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -5725,30 +5721,30 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F101" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -5760,27 +5756,27 @@
         <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G102" t="s">
         <v>29</v>
@@ -5792,65 +5788,65 @@
         <v>30</v>
       </c>
       <c r="J102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K102" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
       </c>
       <c r="J103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K103" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -5862,24 +5858,24 @@
         <v>30</v>
       </c>
       <c r="J104" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F105" t="e">
         <v>#N/A</v>
@@ -5891,27 +5887,27 @@
         <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F106" t="e">
         <v>#N/A</v>
@@ -5931,19 +5927,19 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F107" t="e">
         <v>#N/A</v>
@@ -5963,19 +5959,19 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C108" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F108" t="e">
         <v>#N/A</v>
@@ -5995,19 +5991,19 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" t="s">
         <v>306</v>
       </c>
-      <c r="B109" t="s">
-        <v>305</v>
-      </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F109" t="e">
         <v>#N/A</v>
@@ -6027,19 +6023,19 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F110" t="e">
         <v>#N/A</v>
@@ -6059,19 +6055,19 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F111" t="e">
         <v>#N/A</v>
@@ -6091,19 +6087,19 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F112" t="e">
         <v>#N/A</v>
@@ -6123,22 +6119,22 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -6150,27 +6146,27 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
-      </c>
-      <c r="C114" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -6187,22 +6183,22 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -6219,22 +6215,22 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
@@ -6251,22 +6247,22 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F117" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -6283,22 +6279,22 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -6315,22 +6311,22 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -6347,22 +6343,22 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G120" t="s">
         <v>29</v>
@@ -6379,22 +6375,22 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -6411,22 +6407,22 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -6443,22 +6439,22 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -6475,22 +6471,22 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -6507,22 +6503,22 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -6539,22 +6535,22 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -6571,22 +6567,22 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C127" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -6603,22 +6599,22 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -6635,22 +6631,22 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B129" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D129" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -6667,22 +6663,22 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C130" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D130" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -6694,27 +6690,27 @@
         <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
+        <v>355</v>
+      </c>
+      <c r="B131" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>356</v>
+      </c>
+      <c r="D131" t="s">
+        <v>353</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+      <c r="F131" t="s">
         <v>354</v>
-      </c>
-      <c r="B131" t="s">
-        <v>355</v>
-      </c>
-      <c r="C131" t="s">
-        <v>355</v>
-      </c>
-      <c r="D131" t="s">
-        <v>352</v>
-      </c>
-      <c r="E131" t="s">
-        <v>239</v>
-      </c>
-      <c r="F131" t="s">
-        <v>353</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -6731,22 +6727,22 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D132" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -6763,22 +6759,22 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
@@ -6795,22 +6791,22 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D134" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -6827,22 +6823,22 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B135" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C135" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D135" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -6859,22 +6855,22 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -6891,22 +6887,22 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G137" t="s">
         <v>29</v>
@@ -6923,22 +6919,22 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D138" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F138" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -6955,22 +6951,22 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D139" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
@@ -6987,22 +6983,22 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D140" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -7019,22 +7015,22 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D141" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F141" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -7051,22 +7047,22 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B142" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D142" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F142" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -7083,22 +7079,22 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D143" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E143" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F143" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
@@ -7115,22 +7111,22 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D144" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E144" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F144" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -7147,22 +7143,22 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B145" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C145" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D145" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F145" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G145" t="s">
         <v>29</v>
@@ -7179,22 +7175,22 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B146" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C146" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F146" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -7211,22 +7207,22 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C147" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D147" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F147" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -7243,22 +7239,22 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B148" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D148" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F148" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G148" t="s">
         <v>29</v>
@@ -7275,22 +7271,22 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B149" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C149" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D149" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E149" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F149" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -7307,22 +7303,22 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D150" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E150" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F150" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -7339,22 +7335,22 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D151" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F151" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G151" t="s">
         <v>29</v>
@@ -7371,22 +7367,22 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D152" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E152" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F152" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -7403,22 +7399,22 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B153" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C153" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E153" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F153" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -7435,22 +7431,22 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C154" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -7467,22 +7463,22 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B155" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D155" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F155" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G155" t="s">
         <v>29</v>
@@ -7499,22 +7495,22 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C156" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -7531,22 +7527,22 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D157" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -7563,22 +7559,22 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F158" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -7595,22 +7591,22 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F159" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -7627,22 +7623,22 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D160" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -7659,22 +7655,22 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D161" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F161" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -7691,22 +7687,22 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C162" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D162" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E162" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F162" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G162" t="s">
         <v>29</v>
@@ -7723,22 +7719,22 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D163" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E163" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F163" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G163" t="s">
         <v>29</v>
@@ -7755,22 +7751,22 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B164" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C164" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D164" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G164" t="s">
         <v>29</v>
@@ -7787,22 +7783,22 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B165" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C165" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D165" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F165" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -7819,22 +7815,22 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B166" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C166" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D166" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F166" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G166" t="s">
         <v>29</v>
@@ -7851,22 +7847,22 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B167" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C167" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D167" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E167" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F167" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -7883,22 +7879,22 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C168" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D168" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F168" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -7915,22 +7911,22 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B169" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D169" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E169" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F169" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -7947,22 +7943,22 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B170" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C170" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D170" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E170" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F170" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -7979,22 +7975,22 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B171" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C171" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D171" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F171" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G171" t="s">
         <v>29</v>
@@ -8011,22 +8007,22 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B172" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C172" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D172" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E172" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F172" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G172" t="s">
         <v>29</v>
@@ -8043,22 +8039,22 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C173" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D173" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G173" t="s">
         <v>29</v>
@@ -8075,22 +8071,22 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B174" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C174" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E174" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F174" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G174" t="s">
         <v>29</v>
@@ -8107,22 +8103,22 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B175" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C175" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G175" t="s">
         <v>29</v>
@@ -8139,22 +8135,22 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B176" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C176" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D176" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E176" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F176" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
@@ -8171,22 +8167,22 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B177" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C177" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D177" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E177" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F177" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -8203,22 +8199,22 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B178" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D178" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E178" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F178" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G178" t="s">
         <v>29</v>
@@ -8235,22 +8231,22 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E179" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G179" t="s">
         <v>29</v>
@@ -8267,22 +8263,22 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D180" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E180" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -8299,22 +8295,22 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B181" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C181" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D181" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F181" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -8331,22 +8327,22 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B182" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C182" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D182" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F182" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -8363,22 +8359,22 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B183" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C183" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D183" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E183" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F183" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G183" t="s">
         <v>29</v>
@@ -8395,22 +8391,22 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B184" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C184" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D184" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E184" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F184" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -8427,22 +8423,22 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D185" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E185" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F185" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G185" t="s">
         <v>29</v>
@@ -8459,22 +8455,22 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B186" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C186" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D186" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F186" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -8491,22 +8487,22 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E187" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F187" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -8523,22 +8519,22 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D188" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E188" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F188" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G188" t="s">
         <v>29</v>
@@ -8555,22 +8551,22 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D189" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F189" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G189" t="s">
         <v>29</v>
@@ -8587,22 +8583,22 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E190" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F190" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>
@@ -8619,22 +8615,22 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D191" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E191" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F191" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -8651,22 +8647,22 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B192" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C192" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D192" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E192" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G192" t="s">
         <v>29</v>
@@ -8683,22 +8679,22 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B193" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C193" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D193" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E193" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F193" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -8715,22 +8711,22 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D194" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E194" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F194" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G194" t="s">
         <v>29</v>
@@ -8747,22 +8743,22 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B195" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C195" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D195" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F195" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -8779,22 +8775,22 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E196" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F196" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G196" t="s">
         <v>29</v>
@@ -8811,22 +8807,22 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B197" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C197" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D197" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E197" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F197" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G197" t="s">
         <v>29</v>
@@ -8843,22 +8839,22 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D198" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E198" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F198" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -8875,22 +8871,22 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E199" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F199" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G199" t="s">
         <v>29</v>
@@ -8907,22 +8903,22 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E200" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F200" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -8939,22 +8935,22 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B201" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D201" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E201" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F201" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G201" t="s">
         <v>29</v>
@@ -8971,22 +8967,22 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E202" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F202" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -9003,22 +8999,22 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B203" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C203" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D203" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E203" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G203" t="s">
         <v>29</v>
@@ -9035,22 +9031,22 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D204" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E204" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F204" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G204" t="s">
         <v>29</v>
@@ -9067,22 +9063,22 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B205" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C205" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E205" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G205" t="s">
         <v>29</v>
@@ -9099,22 +9095,22 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C206" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E206" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G206" t="s">
         <v>29</v>
@@ -9131,22 +9127,22 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C207" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D207" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E207" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G207" t="s">
         <v>29</v>
@@ -9163,22 +9159,22 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D208" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E208" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F208" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G208" t="s">
         <v>29</v>
@@ -9195,22 +9191,22 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E209" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G209" t="s">
         <v>29</v>
@@ -9227,22 +9223,22 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B210" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C210" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D210" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E210" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F210" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -9259,22 +9255,22 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C211" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D211" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E211" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F211" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G211" t="s">
         <v>29</v>
@@ -9291,22 +9287,22 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C212" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D212" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F212" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G212" t="s">
         <v>29</v>
@@ -9323,22 +9319,22 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D213" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E213" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F213" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G213" t="s">
         <v>29</v>
@@ -9355,22 +9351,22 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D214" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F214" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G214" t="s">
         <v>29</v>
@@ -9387,22 +9383,22 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B215" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C215" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D215" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G215" t="s">
         <v>29</v>
@@ -9419,22 +9415,22 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D216" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E216" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F216" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -9451,22 +9447,22 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D217" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E217" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F217" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G217" t="s">
         <v>29</v>
@@ -9483,22 +9479,22 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D218" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F218" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G218" t="s">
         <v>17</v>
@@ -9510,33 +9506,33 @@
         <v>18</v>
       </c>
       <c r="J218" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B219" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C219" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D219" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E219" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F219" t="s">
         <v>149</v>
       </c>
       <c r="G219" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H219" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I219" t="s">
         <v>18</v>
@@ -9547,28 +9543,28 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B220" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C220" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D220" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E220" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F220" t="s">
         <v>149</v>
       </c>
       <c r="G220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I220" t="e">
         <v>#N/A</v>
@@ -9579,54 +9575,54 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B221" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C221" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D221" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E221" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F221" t="s">
         <v>149</v>
       </c>
       <c r="G221" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H221" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I221" t="s">
         <v>18</v>
       </c>
       <c r="J221" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C222" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D222" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E222" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G222" t="s">
         <v>29</v>
@@ -9638,27 +9634,27 @@
         <v>30</v>
       </c>
       <c r="J222" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K222" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B223" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C223" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D223" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E223" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F223" t="e">
         <v>#N/A</v>
@@ -9670,30 +9666,30 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J223" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>546</v>
-      </c>
-      <c r="B224" t="s">
         <v>547</v>
       </c>
+      <c r="B224" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="C224" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D224" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E224" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F224" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G224" t="s">
         <v>29</v>
@@ -9710,19 +9706,19 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C225" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D225" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E225" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F225" t="s">
         <v>121</v>
@@ -9737,27 +9733,27 @@
         <v>18</v>
       </c>
       <c r="J225" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B226" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C226" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D226" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E226" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F226" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G226" t="s">
         <v>29</v>
@@ -9769,7 +9765,7 @@
         <v>18</v>
       </c>
       <c r="J226" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -9777,19 +9773,19 @@
         <v>39</v>
       </c>
       <c r="B227" t="s">
+        <v>556</v>
+      </c>
+      <c r="C227" t="s">
+        <v>556</v>
+      </c>
+      <c r="D227" t="s">
         <v>555</v>
       </c>
-      <c r="C227" t="s">
-        <v>555</v>
-      </c>
-      <c r="D227" t="s">
-        <v>554</v>
-      </c>
       <c r="E227" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F227" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G227" t="s">
         <v>29</v>
@@ -9806,22 +9802,22 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B228" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C228" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D228" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E228" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F228" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -9838,22 +9834,22 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B229" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C229" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D229" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E229" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F229" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G229" t="s">
         <v>29</v>
@@ -9870,22 +9866,22 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B230" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C230" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D230" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E230" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F230" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G230" t="s">
         <v>29</v>
@@ -9902,22 +9898,22 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B231" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C231" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E231" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F231" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G231" t="s">
         <v>29</v>
@@ -9934,22 +9930,22 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B232" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C232" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D232" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F232" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G232" t="s">
         <v>29</v>
@@ -9966,22 +9962,22 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B233" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C233" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D233" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E233" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F233" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G233" t="s">
         <v>29</v>
@@ -9998,22 +9994,22 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C234" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D234" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E234" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F234" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G234" t="s">
         <v>29</v>
@@ -10030,22 +10026,22 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B235" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C235" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D235" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F235" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G235" t="s">
         <v>29</v>
@@ -10062,22 +10058,22 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B236" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C236" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D236" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F236" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -10094,22 +10090,22 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C237" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D237" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E237" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F237" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -10126,22 +10122,22 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C238" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D238" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E238" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F238" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G238" t="s">
         <v>29</v>
@@ -10158,22 +10154,22 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B239" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C239" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D239" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E239" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F239" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G239" t="s">
         <v>29</v>
@@ -10190,22 +10186,22 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B240" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C240" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D240" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F240" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G240" t="s">
         <v>29</v>
@@ -10225,19 +10221,19 @@
         <v>133</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C241" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D241" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F241" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G241" t="s">
         <v>29</v>
@@ -10249,10 +10245,10 @@
         <v>30</v>
       </c>
       <c r="J241" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K241" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -10260,19 +10256,19 @@
         <v>133</v>
       </c>
       <c r="B242" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C242" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D242" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E242" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F242" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G242" t="s">
         <v>29</v>
@@ -10284,24 +10280,24 @@
         <v>30</v>
       </c>
       <c r="J242" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B243" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C243" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D243" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E243" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
@@ -10321,19 +10317,19 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C244" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D244" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E244" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F244" t="s">
         <v>17</v>
@@ -10353,19 +10349,19 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
+        <v>588</v>
+      </c>
+      <c r="B245" t="s">
+        <v>589</v>
+      </c>
+      <c r="C245" t="s">
+        <v>589</v>
+      </c>
+      <c r="D245" t="s">
         <v>587</v>
       </c>
-      <c r="B245" t="s">
-        <v>588</v>
-      </c>
-      <c r="C245" t="s">
-        <v>588</v>
-      </c>
-      <c r="D245" t="s">
-        <v>586</v>
-      </c>
       <c r="E245" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F245" t="s">
         <v>17</v>
@@ -10385,19 +10381,19 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C246" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D246" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E246" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F246" t="s">
         <v>121</v>
@@ -10417,19 +10413,19 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B247" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D247" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E247" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F247" t="e">
         <v>#N/A</v>
@@ -10449,22 +10445,22 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>596</v>
-      </c>
-      <c r="B248" t="s">
         <v>597</v>
       </c>
+      <c r="B248" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="C248" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D248" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E248" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F248" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G248" t="s">
         <v>29</v>
@@ -10476,27 +10472,27 @@
         <v>#N/A</v>
       </c>
       <c r="J248" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B249" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C249" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D249" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E249" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F249" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G249" t="s">
         <v>29</v>
@@ -10513,22 +10509,22 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B250" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C250" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D250" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E250" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F250" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G250" t="s">
         <v>29</v>
@@ -10545,22 +10541,22 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B251" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C251" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D251" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E251" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F251" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G251" t="s">
         <v>29</v>
@@ -10577,22 +10573,22 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B252" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C252" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D252" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E252" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F252" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G252" t="s">
         <v>29</v>
@@ -10609,22 +10605,22 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B253" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C253" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D253" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E253" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F253" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G253" t="s">
         <v>29</v>
@@ -10641,22 +10637,22 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B254" t="s">
+        <v>607</v>
+      </c>
+      <c r="C254" t="s">
+        <v>607</v>
+      </c>
+      <c r="D254" t="s">
         <v>606</v>
       </c>
-      <c r="C254" t="s">
-        <v>606</v>
-      </c>
-      <c r="D254" t="s">
-        <v>605</v>
-      </c>
       <c r="E254" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F254" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -10673,22 +10669,22 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B255" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C255" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D255" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E255" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F255" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G255" t="s">
         <v>29</v>
@@ -10705,22 +10701,22 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B256" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C256" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D256" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E256" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F256" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G256" t="s">
         <v>29</v>
@@ -10737,22 +10733,22 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B257" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C257" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D257" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E257" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F257" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G257" t="s">
         <v>29</v>
@@ -10769,22 +10765,22 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B258" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C258" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D258" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E258" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F258" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G258" t="s">
         <v>29</v>
@@ -10804,19 +10800,19 @@
         <v>81</v>
       </c>
       <c r="B259" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C259" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D259" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E259" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F259" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G259" t="s">
         <v>29</v>
@@ -10833,22 +10829,22 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B260" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C260" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D260" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E260" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F260" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G260" t="s">
         <v>29</v>
@@ -10865,22 +10861,22 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B261" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C261" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D261" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E261" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F261" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G261" t="s">
         <v>29</v>
@@ -10897,22 +10893,22 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B262" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C262" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D262" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E262" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F262" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G262" t="s">
         <v>29</v>
@@ -10929,22 +10925,22 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B263" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C263" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D263" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E263" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F263" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G263" t="s">
         <v>29</v>
@@ -10961,22 +10957,22 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B264" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C264" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D264" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E264" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F264" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G264" t="s">
         <v>29</v>
@@ -10993,22 +10989,22 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D265" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E265" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F265" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G265" t="s">
         <v>29</v>
@@ -11025,22 +11021,22 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D266" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E266" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F266" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G266" t="s">
         <v>29</v>
@@ -11057,22 +11053,22 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B267" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C267" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D267" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E267" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F267" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G267" t="s">
         <v>29</v>
@@ -11089,22 +11085,22 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B268" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C268" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D268" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E268" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F268" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G268" t="s">
         <v>29</v>
@@ -11121,22 +11117,22 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B269" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C269" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D269" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E269" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F269" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G269" t="s">
         <v>29</v>
@@ -11153,19 +11149,19 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B270" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C270" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D270" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E270" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F270" t="e">
         <v>#N/A</v>
@@ -11185,22 +11181,22 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B271" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C271" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E271" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F271" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -11217,22 +11213,22 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
+        <v>638</v>
+      </c>
+      <c r="B272" t="s">
+        <v>639</v>
+      </c>
+      <c r="C272" t="s">
+        <v>639</v>
+      </c>
+      <c r="D272" t="s">
         <v>637</v>
       </c>
-      <c r="B272" t="s">
-        <v>638</v>
-      </c>
-      <c r="C272" t="s">
-        <v>638</v>
-      </c>
-      <c r="D272" t="s">
-        <v>636</v>
-      </c>
       <c r="E272" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F272" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G272" t="s">
         <v>29</v>
@@ -11249,22 +11245,22 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B273" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C273" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D273" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E273" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F273" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G273" t="s">
         <v>29</v>
@@ -11281,22 +11277,22 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B274" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C274" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D274" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E274" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F274" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G274" t="s">
         <v>29</v>
@@ -11313,22 +11309,22 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B275" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C275" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D275" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E275" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F275" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G275" t="s">
         <v>29</v>
@@ -11345,22 +11341,22 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B276" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C276" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D276" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E276" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F276" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G276" t="s">
         <v>29</v>
@@ -11377,22 +11373,22 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B277" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C277" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D277" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E277" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F277" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G277" t="s">
         <v>29</v>
@@ -11409,22 +11405,22 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B278" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C278" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D278" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E278" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F278" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G278" t="s">
         <v>29</v>
@@ -11441,22 +11437,22 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B279" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C279" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D279" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E279" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F279" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G279" t="s">
         <v>29</v>
@@ -11473,22 +11469,22 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B280" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C280" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D280" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E280" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F280" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G280" t="s">
         <v>29</v>
@@ -11505,22 +11501,22 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B281" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C281" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D281" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E281" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F281" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G281" t="s">
         <v>29</v>
@@ -11537,22 +11533,22 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B282" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C282" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D282" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E282" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F282" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G282" t="s">
         <v>29</v>
@@ -11569,22 +11565,22 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B283" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C283" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D283" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E283" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F283" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G283" t="s">
         <v>29</v>
@@ -11601,19 +11597,19 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B284" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C284" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D284" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E284" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F284" t="s">
         <v>121</v>
@@ -11633,19 +11629,19 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
+        <v>662</v>
+      </c>
+      <c r="B285" t="s">
+        <v>660</v>
+      </c>
+      <c r="C285" t="s">
+        <v>660</v>
+      </c>
+      <c r="D285" t="s">
         <v>661</v>
       </c>
-      <c r="B285" t="s">
-        <v>659</v>
-      </c>
-      <c r="C285" t="s">
-        <v>659</v>
-      </c>
-      <c r="D285" t="s">
-        <v>660</v>
-      </c>
       <c r="E285" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F285" t="s">
         <v>121</v>
@@ -11665,19 +11661,19 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B286" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C286" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D286" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E286" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F286" t="s">
         <v>121</v>
@@ -11697,22 +11693,22 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B287" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C287" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D287" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E287" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F287" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G287" t="s">
         <v>29</v>
@@ -11724,27 +11720,27 @@
         <v>18</v>
       </c>
       <c r="J287" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B288" t="s">
-        <v>669</v>
-      </c>
-      <c r="C288" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="D288" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E288" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F288" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G288" t="s">
         <v>29</v>
@@ -11761,22 +11757,22 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B289" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C289" t="e">
         <v>#N/A</v>
       </c>
       <c r="D289" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E289" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F289" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G289" t="s">
         <v>29</v>
@@ -11793,22 +11789,22 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B290" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C290" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D290" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E290" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F290" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G290" t="s">
         <v>29</v>
@@ -11825,19 +11821,19 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>150</v>
-      </c>
-      <c r="B291" t="s">
-        <v>674</v>
+        <v>151</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="C291" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D291" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E291" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F291" t="s">
         <v>121</v>
@@ -11852,24 +11848,24 @@
         <v>18</v>
       </c>
       <c r="J291" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B292" t="s">
+        <v>677</v>
+      </c>
+      <c r="C292" t="s">
+        <v>677</v>
+      </c>
+      <c r="D292" t="s">
         <v>676</v>
       </c>
-      <c r="C292" t="s">
-        <v>676</v>
-      </c>
-      <c r="D292" t="s">
-        <v>675</v>
-      </c>
       <c r="E292" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F292" t="s">
         <v>121</v>
@@ -11889,19 +11885,19 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B293" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D293" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E293" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F293" t="s">
         <v>121</v>
@@ -11921,19 +11917,19 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B294" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C294" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D294" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E294" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F294" t="s">
         <v>17</v>
@@ -11953,19 +11949,19 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
+        <v>682</v>
+      </c>
+      <c r="B295" t="s">
+        <v>683</v>
+      </c>
+      <c r="C295" t="s">
+        <v>683</v>
+      </c>
+      <c r="D295" t="s">
         <v>681</v>
       </c>
-      <c r="B295" t="s">
-        <v>682</v>
-      </c>
-      <c r="C295" t="s">
-        <v>682</v>
-      </c>
-      <c r="D295" t="s">
-        <v>680</v>
-      </c>
       <c r="E295" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -11985,19 +11981,19 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B296" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C296" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D296" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E296" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -12017,19 +12013,19 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B297" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C297" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D297" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E297" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F297" t="s">
         <v>17</v>
@@ -12049,19 +12045,19 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B298" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C298" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D298" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E298" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -12081,19 +12077,19 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B299" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C299" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D299" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E299" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -12113,19 +12109,19 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B300" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C300" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D300" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E300" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F300" t="s">
         <v>17</v>
@@ -12145,19 +12141,19 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B301" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C301" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D301" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E301" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F301" t="s">
         <v>17</v>
@@ -12177,19 +12173,19 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B302" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C302" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D302" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E302" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F302" t="s">
         <v>17</v>
@@ -12227,6 +12223,12 @@
     <hyperlink ref="B222" r:id="rId16" xr:uid="{9C138A55-4B7B-42E5-BC75-59FC81EAF11E}"/>
     <hyperlink ref="B225" r:id="rId17" xr:uid="{E68C9F93-F9EC-4E95-A11B-D60DCE981862}"/>
     <hyperlink ref="B241" r:id="rId18" xr:uid="{0604709A-D485-49E7-8D5D-35AA4EEC6772}"/>
+    <hyperlink ref="C48" r:id="rId19" xr:uid="{C32D950A-6E6A-426E-9B80-525230F9C044}"/>
+    <hyperlink ref="B291" r:id="rId20" xr:uid="{88ECB2FA-9CD5-4896-A7D3-4AB033937DC8}"/>
+    <hyperlink ref="B248" r:id="rId21" xr:uid="{DEDEF606-109A-4F1B-9C9D-D67514E8CF3B}"/>
+    <hyperlink ref="C288" r:id="rId22" xr:uid="{630AB60C-DEC6-47CA-B2C3-F635F5062897}"/>
+    <hyperlink ref="C114" r:id="rId23" xr:uid="{91F2D16C-99E8-4A56-A1FD-D7791AE56949}"/>
+    <hyperlink ref="B224" r:id="rId24" location="%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D" xr:uid="{6B1689BF-02BE-41DB-A636-D1DF14D3FB29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/output/licenses_2020_processed_AI.xlsx
+++ b/output/licenses_2020_processed_AI.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_E88293383C096B40D363319A961B185C02DA4E0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54E18CB-1292-41C7-AFA4-91CE636C65C1}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_E88293383C096B40D363319A961B185C02DA4E0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000511DD-6A26-4076-9450-029A76D498F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="licenses_2020_processed_AI" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="695">
   <si>
     <t>article</t>
   </si>
@@ -2111,13 +2116,16 @@
   </si>
   <si>
     <t>http://doi.org/10.2210/pdb6Z9P/pdb</t>
+  </si>
+  <si>
+    <t>True für FAIR-Enough! CC BY-NC-ND, metadata file!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2157,20 +2165,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2467,13 +2478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2549,7 +2560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2587,14 +2598,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="255">
+    <row r="4" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -2625,7 +2636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2663,7 +2674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2698,7 +2709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2730,7 +2741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2762,7 +2773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2826,7 +2837,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2858,7 +2869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2922,7 +2933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -3050,7 +3061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -3114,7 +3125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -3242,7 +3253,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3274,7 +3285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -3306,7 +3317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -3338,7 +3349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -3402,7 +3413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -3498,7 +3509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3562,7 +3573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -3722,7 +3733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3765,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3786,7 +3797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3818,7 +3829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -3850,7 +3861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -3882,7 +3893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3914,7 +3925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -3946,7 +3957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -4016,14 +4027,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D48" t="s">
@@ -4048,7 +4059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -4112,7 +4123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -4144,7 +4155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -4240,14 +4251,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="180">
+    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D55" t="s">
@@ -4278,7 +4289,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -4342,7 +4353,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>177</v>
       </c>
@@ -4374,14 +4385,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>180</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D59" t="s">
@@ -4406,7 +4417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -4438,7 +4449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -4534,7 +4545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -4630,7 +4641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -4662,7 +4673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -4726,7 +4737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -4758,7 +4769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -4790,7 +4801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -4854,7 +4865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>210</v>
       </c>
@@ -4886,7 +4897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -4918,7 +4929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -4991,7 +5002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -5023,7 +5034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -5087,7 +5098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>232</v>
       </c>
@@ -5119,7 +5130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>234</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>236</v>
       </c>
@@ -5183,7 +5194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -5215,7 +5226,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>243</v>
       </c>
@@ -5247,7 +5258,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>248</v>
       </c>
@@ -5279,7 +5290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5311,7 +5322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5375,7 +5386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>256</v>
       </c>
@@ -5407,7 +5418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -5439,7 +5450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -5503,7 +5514,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -5535,7 +5546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>269</v>
       </c>
@@ -5567,7 +5578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>271</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>273</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>275</v>
       </c>
@@ -5663,7 +5674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>277</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>278</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>282</v>
       </c>
@@ -5759,7 +5770,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -5794,14 +5805,14 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>154</v>
       </c>
       <c r="B103" t="s">
         <v>293</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D103" t="s">
@@ -5820,16 +5831,16 @@
         <v>295</v>
       </c>
       <c r="I103" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>291</v>
+        <v>694</v>
       </c>
       <c r="K103" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>299</v>
       </c>
@@ -5893,7 +5904,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>303</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>304</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>305</v>
       </c>
@@ -5989,7 +6000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>307</v>
       </c>
@@ -6021,7 +6032,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -6053,7 +6064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -6085,7 +6096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -6117,7 +6128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>314</v>
       </c>
@@ -6149,7 +6160,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>319</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>321</v>
       </c>
@@ -6213,7 +6224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>323</v>
       </c>
@@ -6245,7 +6256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>325</v>
       </c>
@@ -6277,7 +6288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -6309,7 +6320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>329</v>
       </c>
@@ -6341,7 +6352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>331</v>
       </c>
@@ -6373,7 +6384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>333</v>
       </c>
@@ -6405,7 +6416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>335</v>
       </c>
@@ -6437,7 +6448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>337</v>
       </c>
@@ -6469,7 +6480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>339</v>
       </c>
@@ -6501,7 +6512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>341</v>
       </c>
@@ -6533,7 +6544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>343</v>
       </c>
@@ -6565,7 +6576,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>345</v>
       </c>
@@ -6597,7 +6608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>347</v>
       </c>
@@ -6629,7 +6640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>349</v>
       </c>
@@ -6661,7 +6672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>299</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>355</v>
       </c>
@@ -6725,7 +6736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>357</v>
       </c>
@@ -6757,7 +6768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -6789,7 +6800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>361</v>
       </c>
@@ -6821,7 +6832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>363</v>
       </c>
@@ -6853,7 +6864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>365</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>367</v>
       </c>
@@ -6917,7 +6928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>369</v>
       </c>
@@ -6949,7 +6960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>371</v>
       </c>
@@ -6981,7 +6992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>373</v>
       </c>
@@ -7013,7 +7024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>375</v>
       </c>
@@ -7045,7 +7056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>377</v>
       </c>
@@ -7077,7 +7088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>379</v>
       </c>
@@ -7109,7 +7120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>381</v>
       </c>
@@ -7141,7 +7152,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>329</v>
       </c>
@@ -7173,7 +7184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>384</v>
       </c>
@@ -7205,7 +7216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>386</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>388</v>
       </c>
@@ -7269,7 +7280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>390</v>
       </c>
@@ -7301,7 +7312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>392</v>
       </c>
@@ -7333,7 +7344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>394</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>396</v>
       </c>
@@ -7397,7 +7408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>398</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -7461,7 +7472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>401</v>
       </c>
@@ -7493,7 +7504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>403</v>
       </c>
@@ -7525,7 +7536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>405</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>407</v>
       </c>
@@ -7589,7 +7600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -7621,7 +7632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -7653,7 +7664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>412</v>
       </c>
@@ -7685,7 +7696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>414</v>
       </c>
@@ -7717,7 +7728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>416</v>
       </c>
@@ -7749,7 +7760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>418</v>
       </c>
@@ -7781,7 +7792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>420</v>
       </c>
@@ -7813,7 +7824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>422</v>
       </c>
@@ -7845,7 +7856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>424</v>
       </c>
@@ -7877,7 +7888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>426</v>
       </c>
@@ -7909,7 +7920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>428</v>
       </c>
@@ -7941,7 +7952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -7973,7 +7984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -8005,7 +8016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>433</v>
       </c>
@@ -8037,7 +8048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>435</v>
       </c>
@@ -8069,7 +8080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>437</v>
       </c>
@@ -8101,7 +8112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>439</v>
       </c>
@@ -8133,7 +8144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>441</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>443</v>
       </c>
@@ -8197,7 +8208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>445</v>
       </c>
@@ -8229,7 +8240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>446</v>
       </c>
@@ -8261,7 +8272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>448</v>
       </c>
@@ -8293,7 +8304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>450</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>452</v>
       </c>
@@ -8357,7 +8368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>454</v>
       </c>
@@ -8389,7 +8400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>456</v>
       </c>
@@ -8421,7 +8432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>458</v>
       </c>
@@ -8453,7 +8464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>460</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>462</v>
       </c>
@@ -8517,7 +8528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>464</v>
       </c>
@@ -8549,7 +8560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>466</v>
       </c>
@@ -8581,7 +8592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>468</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>470</v>
       </c>
@@ -8645,7 +8656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>472</v>
       </c>
@@ -8677,7 +8688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>474</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>476</v>
       </c>
@@ -8741,7 +8752,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>478</v>
       </c>
@@ -8773,7 +8784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>341</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>480</v>
       </c>
@@ -8837,7 +8848,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>482</v>
       </c>
@@ -8869,7 +8880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>484</v>
       </c>
@@ -8901,7 +8912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>486</v>
       </c>
@@ -8933,7 +8944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>488</v>
       </c>
@@ -8965,7 +8976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>490</v>
       </c>
@@ -8997,7 +9008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>492</v>
       </c>
@@ -9029,7 +9040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>494</v>
       </c>
@@ -9061,7 +9072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>496</v>
       </c>
@@ -9093,7 +9104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>498</v>
       </c>
@@ -9125,7 +9136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>500</v>
       </c>
@@ -9157,7 +9168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>502</v>
       </c>
@@ -9189,7 +9200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>504</v>
       </c>
@@ -9221,7 +9232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>506</v>
       </c>
@@ -9253,7 +9264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>508</v>
       </c>
@@ -9285,7 +9296,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -9317,7 +9328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>512</v>
       </c>
@@ -9349,7 +9360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -9381,7 +9392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>516</v>
       </c>
@@ -9413,7 +9424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>518</v>
       </c>
@@ -9445,7 +9456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>520</v>
       </c>
@@ -9477,7 +9488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>171</v>
       </c>
@@ -9509,7 +9520,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>526</v>
       </c>
@@ -9541,7 +9552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>530</v>
       </c>
@@ -9573,14 +9584,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>532</v>
       </c>
       <c r="B221" t="s">
         <v>533</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>533</v>
       </c>
       <c r="D221" t="s">
@@ -9605,7 +9616,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -9640,7 +9651,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>542</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>547</v>
       </c>
@@ -9704,7 +9715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>550</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>39</v>
       </c>
@@ -9800,7 +9811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>557</v>
       </c>
@@ -9832,7 +9843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>559</v>
       </c>
@@ -9864,7 +9875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>273</v>
       </c>
@@ -9896,7 +9907,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>325</v>
       </c>
@@ -9928,7 +9939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>154</v>
       </c>
@@ -9960,7 +9971,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>564</v>
       </c>
@@ -9992,7 +10003,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>566</v>
       </c>
@@ -10024,7 +10035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>568</v>
       </c>
@@ -10056,7 +10067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>570</v>
       </c>
@@ -10088,7 +10099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>572</v>
       </c>
@@ -10120,7 +10131,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>496</v>
       </c>
@@ -10152,7 +10163,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>575</v>
       </c>
@@ -10184,7 +10195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>577</v>
       </c>
@@ -10216,7 +10227,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>133</v>
       </c>
@@ -10251,7 +10262,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>133</v>
       </c>
@@ -10283,7 +10294,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -10315,7 +10326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>277</v>
       </c>
@@ -10347,7 +10358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>588</v>
       </c>
@@ -10379,14 +10390,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>590</v>
       </c>
       <c r="B246" t="s">
         <v>591</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="4" t="s">
         <v>592</v>
       </c>
       <c r="D246" t="s">
@@ -10411,7 +10422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>594</v>
       </c>
@@ -10443,7 +10454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>597</v>
       </c>
@@ -10475,7 +10486,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -10507,7 +10518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>602</v>
       </c>
@@ -10539,7 +10550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>321</v>
       </c>
@@ -10571,7 +10582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>277</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>365</v>
       </c>
@@ -10635,7 +10646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>384</v>
       </c>
@@ -10667,7 +10678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>401</v>
       </c>
@@ -10699,7 +10710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>609</v>
       </c>
@@ -10731,7 +10742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>611</v>
       </c>
@@ -10763,7 +10774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>613</v>
       </c>
@@ -10795,7 +10806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>81</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>616</v>
       </c>
@@ -10859,7 +10870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>618</v>
       </c>
@@ -10891,7 +10902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>620</v>
       </c>
@@ -10923,7 +10934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>437</v>
       </c>
@@ -10955,7 +10966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>158</v>
       </c>
@@ -10987,7 +10998,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>624</v>
       </c>
@@ -11019,7 +11030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -11051,7 +11062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>488</v>
       </c>
@@ -11083,7 +11094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>629</v>
       </c>
@@ -11115,7 +11126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>631</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
@@ -11179,7 +11190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>635</v>
       </c>
@@ -11211,7 +11222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>638</v>
       </c>
@@ -11243,7 +11254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>640</v>
       </c>
@@ -11275,7 +11286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>642</v>
       </c>
@@ -11307,7 +11318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>644</v>
       </c>
@@ -11339,7 +11350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>646</v>
       </c>
@@ -11371,7 +11382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>647</v>
       </c>
@@ -11403,7 +11414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>649</v>
       </c>
@@ -11435,7 +11446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>651</v>
       </c>
@@ -11467,7 +11478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>433</v>
       </c>
@@ -11499,7 +11510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>654</v>
       </c>
@@ -11531,7 +11542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>656</v>
       </c>
@@ -11563,7 +11574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>658</v>
       </c>
@@ -11595,7 +11606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -11627,7 +11638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>662</v>
       </c>
@@ -11659,7 +11670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>663</v>
       </c>
@@ -11691,7 +11702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>665</v>
       </c>
@@ -11723,7 +11734,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>669</v>
       </c>
@@ -11755,7 +11766,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>671</v>
       </c>
@@ -11787,7 +11798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>673</v>
       </c>
@@ -11819,7 +11830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>151</v>
       </c>
@@ -11851,7 +11862,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>662</v>
       </c>
@@ -11883,7 +11894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>256</v>
       </c>
@@ -11915,7 +11926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>679</v>
       </c>
@@ -11947,7 +11958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>682</v>
       </c>
@@ -11979,7 +11990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>684</v>
       </c>
@@ -12011,7 +12022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>154</v>
       </c>
@@ -12043,7 +12054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>665</v>
       </c>
@@ -12075,7 +12086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>669</v>
       </c>
@@ -12107,7 +12118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>689</v>
       </c>
@@ -12139,7 +12150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>691</v>
       </c>
@@ -12171,7 +12182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>673</v>
       </c>
@@ -12205,30 +12216,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0416EBC3-8D8D-481F-8AE5-4EE303E3A61A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3D158592-DBDD-4E7C-80E8-EC7550D49540}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{94EE5BAB-7F14-43C5-A28B-7F456B55B6B0}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{0F27C323-B0AB-4F41-AA5A-333DCD771D2F}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{A006C341-A7EC-47B0-AC64-C3C6F2C68252}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{D3169253-9DF3-4968-95FC-A177AC122101}"/>
-    <hyperlink ref="B47" r:id="rId7" xr:uid="{91DC6AE2-0799-4F2A-8C41-944E0088A668}"/>
-    <hyperlink ref="B55" r:id="rId8" xr:uid="{AC4E8A00-1C31-4C02-8BEB-1C91090ED3CB}"/>
-    <hyperlink ref="B76" r:id="rId9" xr:uid="{7A76082B-9939-45D7-84DD-1483F1134A10}"/>
-    <hyperlink ref="B77" r:id="rId10" xr:uid="{25C8F280-2106-49E7-A00E-EC7247FF32D3}"/>
-    <hyperlink ref="C77" r:id="rId11" xr:uid="{311A40A2-52D8-4648-BD02-A355B771BA9E}"/>
-    <hyperlink ref="B84" r:id="rId12" xr:uid="{3612D7D8-F06D-40BB-946D-8792C56EEB1F}"/>
-    <hyperlink ref="B100" r:id="rId13" xr:uid="{C35BE4DB-F34B-4DD0-AF54-79134BFDC938}"/>
-    <hyperlink ref="C102" r:id="rId14" xr:uid="{0E9DA7FD-567A-46BE-A2D7-10793AF62C16}"/>
-    <hyperlink ref="B218" r:id="rId15" xr:uid="{A07E9204-AEA5-4365-8A9C-9E8DC2E4653F}"/>
-    <hyperlink ref="B222" r:id="rId16" xr:uid="{9C138A55-4B7B-42E5-BC75-59FC81EAF11E}"/>
-    <hyperlink ref="B225" r:id="rId17" xr:uid="{E68C9F93-F9EC-4E95-A11B-D60DCE981862}"/>
-    <hyperlink ref="B241" r:id="rId18" xr:uid="{0604709A-D485-49E7-8D5D-35AA4EEC6772}"/>
-    <hyperlink ref="C48" r:id="rId19" xr:uid="{C32D950A-6E6A-426E-9B80-525230F9C044}"/>
-    <hyperlink ref="B291" r:id="rId20" xr:uid="{88ECB2FA-9CD5-4896-A7D3-4AB033937DC8}"/>
-    <hyperlink ref="B248" r:id="rId21" xr:uid="{DEDEF606-109A-4F1B-9C9D-D67514E8CF3B}"/>
-    <hyperlink ref="C288" r:id="rId22" xr:uid="{630AB60C-DEC6-47CA-B2C3-F635F5062897}"/>
-    <hyperlink ref="C114" r:id="rId23" xr:uid="{91F2D16C-99E8-4A56-A1FD-D7791AE56949}"/>
-    <hyperlink ref="B224" r:id="rId24" location="%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D" xr:uid="{6B1689BF-02BE-41DB-A636-D1DF14D3FB29}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{44EBB43D-8A42-4324-B7B6-7195C6A87FF4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{02508A53-5A50-4665-8640-1ED923F3B01A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{774C51FE-9751-46B8-8034-C73DBAB5A203}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{867BF276-AA8C-497E-BBA5-DFD7C2D83833}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{869C2789-E044-49CD-8131-D19BF2886331}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{45F76C5B-A6F6-477C-B95F-A44F75BBEF28}"/>
+    <hyperlink ref="B47" r:id="rId7" xr:uid="{D49236E5-4485-4DEE-B647-ED6CAF3FE824}"/>
+    <hyperlink ref="B55" r:id="rId8" xr:uid="{E880B654-D6D3-4549-965F-22B2658F180B}"/>
+    <hyperlink ref="B76" r:id="rId9" xr:uid="{08C51FA7-9A8D-4D58-9EC1-D3D639112017}"/>
+    <hyperlink ref="B77" r:id="rId10" xr:uid="{70FE3AC0-5E4F-4A6C-BEF0-13BD97B84A46}"/>
+    <hyperlink ref="C77" r:id="rId11" xr:uid="{FB6DC53C-2972-4235-BCD7-40BBFD206E7E}"/>
+    <hyperlink ref="B84" r:id="rId12" xr:uid="{9D934CB7-E4C6-4B48-BE37-218C353B8DEE}"/>
+    <hyperlink ref="B100" r:id="rId13" xr:uid="{8F676046-E817-40E9-A9CB-915810335400}"/>
+    <hyperlink ref="C102" r:id="rId14" xr:uid="{4F45DBE9-967D-427F-BBC3-AD3142D5D1E2}"/>
+    <hyperlink ref="B218" r:id="rId15" xr:uid="{99C87AAB-2C19-4FC7-9114-71BFF39CA264}"/>
+    <hyperlink ref="B222" r:id="rId16" xr:uid="{2E326331-7E14-4CEB-9168-6DBE171D4A2E}"/>
+    <hyperlink ref="B225" r:id="rId17" xr:uid="{59C28CF3-BC57-4280-ABEE-3DFD267BE5AC}"/>
+    <hyperlink ref="B241" r:id="rId18" xr:uid="{D0692A8D-9BBC-45CE-B436-2A60C49FABE1}"/>
+    <hyperlink ref="C48" r:id="rId19" xr:uid="{5FCB6E05-004E-4235-9CEB-A32A99F31F3E}"/>
+    <hyperlink ref="B291" r:id="rId20" xr:uid="{7503AD8A-C44C-4083-A81D-911F42317A09}"/>
+    <hyperlink ref="B248" r:id="rId21" xr:uid="{2BC16F65-F2F0-41F3-B41E-179C5CF6B0B5}"/>
+    <hyperlink ref="C288" r:id="rId22" xr:uid="{69705EFD-0F27-418D-AB9D-57E0FA7091F2}"/>
+    <hyperlink ref="C114" r:id="rId23" xr:uid="{02FBF733-B8D7-48DB-969D-B47F62E38101}"/>
+    <hyperlink ref="B224" r:id="rId24" location="%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D" xr:uid="{A0C88139-DADF-4F60-AC03-3808CADC560E}"/>
+    <hyperlink ref="C55" r:id="rId25" xr:uid="{A2A29B9D-530F-4893-961F-ADCE43487F7B}"/>
+    <hyperlink ref="C59" r:id="rId26" xr:uid="{FA29D142-268D-4BCC-987A-9682029E1764}"/>
+    <hyperlink ref="C103" r:id="rId27" xr:uid="{733E2954-10AA-4497-964C-AD3A913CD55B}"/>
+    <hyperlink ref="C246" r:id="rId28" xr:uid="{28B08CCA-43E5-4C49-80F3-5335136BBBF6}"/>
+    <hyperlink ref="C221" r:id="rId29" xr:uid="{CDD78531-94C2-4D65-B861-F8675E3C5040}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
